--- a/07_testdata/pls_data_serial_record/PLS_sample_data_part1.xlsx
+++ b/07_testdata/pls_data_serial_record/PLS_sample_data_part1.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="284">
   <si>
     <t>A1</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>CBF4</t>
-  </si>
-  <si>
     <t>016C</t>
   </si>
   <si>
@@ -940,6 +937,9 @@
   </si>
   <si>
     <t>0C01</t>
+  </si>
+  <si>
+    <t>F4CB</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="R190" sqref="R190"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1560,7 @@
         <v>73</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1736,14 +1736,14 @@
         <v>69</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>176</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1859,17 +1859,17 @@
         <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="2">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="U7" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1922,17 +1922,17 @@
         <v>2</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="2">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="0"/>
-        <v>428</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1985,10 +1985,10 @@
         <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="0"/>
@@ -2045,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="0"/>
@@ -2105,10 +2105,10 @@
         <v>2</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="0"/>
@@ -2165,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="0"/>
@@ -2225,10 +2225,10 @@
         <v>2</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" si="0"/>
@@ -2285,10 +2285,10 @@
         <v>2</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="0"/>
@@ -2345,10 +2345,10 @@
         <v>2</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="0"/>
@@ -2405,10 +2405,10 @@
         <v>43</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="0"/>
@@ -2465,10 +2465,10 @@
         <v>47</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="0"/>
@@ -2525,10 +2525,10 @@
         <v>30</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="0"/>
@@ -2585,10 +2585,10 @@
         <v>47</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" si="0"/>
@@ -2645,10 +2645,10 @@
         <v>47</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="0"/>
@@ -2705,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="0"/>
@@ -2765,10 +2765,10 @@
         <v>30</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T22" s="2">
         <f t="shared" si="0"/>
@@ -2825,10 +2825,10 @@
         <v>30</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="0"/>
@@ -2885,10 +2885,10 @@
         <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="0"/>
@@ -2945,10 +2945,10 @@
         <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T25" s="2">
         <f t="shared" si="0"/>
@@ -3005,10 +3005,10 @@
         <v>33</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="0"/>
@@ -3065,10 +3065,10 @@
         <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="0"/>
@@ -3125,10 +3125,10 @@
         <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="0"/>
@@ -3185,10 +3185,10 @@
         <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="0"/>
@@ -3245,10 +3245,10 @@
         <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="0"/>
@@ -3305,10 +3305,10 @@
         <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="0"/>
@@ -3365,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="0"/>
@@ -3422,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="0"/>
@@ -3479,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="0"/>
@@ -3536,7 +3536,7 @@
         <v>2</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="0"/>
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="0"/>
@@ -3650,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="0"/>
@@ -3707,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T38" s="2">
         <f t="shared" si="0"/>
@@ -3764,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="0"/>
@@ -3821,7 +3821,7 @@
         <v>47</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="0"/>
@@ -3878,7 +3878,7 @@
         <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="0"/>
@@ -3935,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="0"/>
@@ -3991,12 +3991,10 @@
       <c r="P43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="S43" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="R43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S43" s="2"/>
       <c r="T43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4051,15 +4049,13 @@
       <c r="P44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S44" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="R44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S44" s="2"/>
       <c r="T44" s="2">
         <f t="shared" si="0"/>
-        <v>52212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4112,8 +4108,9 @@
         <v>30</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="S45" s="2"/>
       <c r="T45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4169,7 +4166,7 @@
         <v>30</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="0"/>
@@ -4178,7 +4175,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T47" s="2">
         <f t="shared" si="0"/>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R48" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="0"/>
@@ -4196,7 +4193,7 @@
     </row>
     <row r="49" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="0"/>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="50" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="0"/>
@@ -4214,7 +4211,7 @@
     </row>
     <row r="51" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T51" s="2">
         <f t="shared" si="0"/>
@@ -4223,7 +4220,7 @@
     </row>
     <row r="52" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R52" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T52" s="2">
         <f t="shared" si="0"/>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="53" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T53" s="2">
         <f t="shared" si="0"/>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="54" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T54" s="2">
         <f t="shared" si="0"/>
@@ -4250,7 +4247,7 @@
     </row>
     <row r="55" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R55" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="0"/>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="56" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="0"/>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="57" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="0"/>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="58" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T58" s="2">
         <f t="shared" si="0"/>
@@ -4286,7 +4283,7 @@
     </row>
     <row r="59" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T59" s="2">
         <f t="shared" si="0"/>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="60" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T60" s="2">
         <f t="shared" si="0"/>
@@ -4304,7 +4301,7 @@
     </row>
     <row r="61" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T61" s="2">
         <f t="shared" si="0"/>
@@ -4313,7 +4310,7 @@
     </row>
     <row r="62" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R62" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T62" s="2">
         <f t="shared" si="0"/>
@@ -4322,7 +4319,7 @@
     </row>
     <row r="63" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R63" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T63" s="2">
         <f t="shared" si="0"/>
@@ -4331,7 +4328,7 @@
     </row>
     <row r="64" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R64" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T64" s="2">
         <f t="shared" si="0"/>
@@ -4340,7 +4337,7 @@
     </row>
     <row r="65" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R65" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T65" s="2">
         <f t="shared" si="0"/>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="66" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R66" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T66" s="2">
         <f t="shared" si="0"/>
@@ -4358,7 +4355,7 @@
     </row>
     <row r="67" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R67" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T67" s="2">
         <f t="shared" si="0"/>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="68" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R68" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T68" s="2">
         <f t="shared" ref="T68:T131" si="1">HEX2DEC(S68)</f>
@@ -4376,7 +4373,7 @@
     </row>
     <row r="69" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R69" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T69" s="2">
         <f t="shared" si="1"/>
@@ -4385,7 +4382,7 @@
     </row>
     <row r="70" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R70" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T70" s="2">
         <f t="shared" si="1"/>
@@ -4394,7 +4391,7 @@
     </row>
     <row r="71" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R71" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T71" s="2">
         <f t="shared" si="1"/>
@@ -4403,7 +4400,7 @@
     </row>
     <row r="72" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R72" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T72" s="2">
         <f t="shared" si="1"/>
@@ -4412,7 +4409,7 @@
     </row>
     <row r="73" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R73" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T73" s="2">
         <f t="shared" si="1"/>
@@ -4421,7 +4418,7 @@
     </row>
     <row r="74" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T74" s="2">
         <f t="shared" si="1"/>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="75" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R75" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T75" s="2">
         <f t="shared" si="1"/>
@@ -4439,7 +4436,7 @@
     </row>
     <row r="76" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R76" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T76" s="2">
         <f t="shared" si="1"/>
@@ -4448,7 +4445,7 @@
     </row>
     <row r="77" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T77" s="2">
         <f t="shared" si="1"/>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="78" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T78" s="2">
         <f t="shared" si="1"/>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="79" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T79" s="2">
         <f t="shared" si="1"/>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="80" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R80" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T80" s="2">
         <f t="shared" si="1"/>
@@ -4484,7 +4481,7 @@
     </row>
     <row r="81" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R81" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T81" s="2">
         <f t="shared" si="1"/>
@@ -4493,7 +4490,7 @@
     </row>
     <row r="82" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R82" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T82" s="2">
         <f t="shared" si="1"/>
@@ -4502,7 +4499,7 @@
     </row>
     <row r="83" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R83" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T83" s="2">
         <f t="shared" si="1"/>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="84" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R84" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T84" s="2">
         <f t="shared" si="1"/>
@@ -4520,7 +4517,7 @@
     </row>
     <row r="85" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R85" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T85" s="2">
         <f t="shared" si="1"/>
@@ -4529,7 +4526,7 @@
     </row>
     <row r="86" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R86" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T86" s="2">
         <f t="shared" si="1"/>
@@ -4538,7 +4535,7 @@
     </row>
     <row r="87" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R87" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T87" s="2">
         <f t="shared" si="1"/>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="88" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T88" s="2">
         <f t="shared" si="1"/>
@@ -4556,7 +4553,7 @@
     </row>
     <row r="89" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R89" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T89" s="2">
         <f t="shared" si="1"/>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="90" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R90" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T90" s="2">
         <f t="shared" si="1"/>
@@ -4574,7 +4571,7 @@
     </row>
     <row r="91" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R91" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T91" s="2">
         <f t="shared" si="1"/>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="92" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R92" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T92" s="2">
         <f t="shared" si="1"/>
@@ -4592,7 +4589,7 @@
     </row>
     <row r="93" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R93" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T93" s="2">
         <f t="shared" si="1"/>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="94" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R94" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T94" s="2">
         <f t="shared" si="1"/>
@@ -4610,7 +4607,7 @@
     </row>
     <row r="95" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R95" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T95" s="2">
         <f t="shared" si="1"/>
@@ -4619,7 +4616,7 @@
     </row>
     <row r="96" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R96" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T96" s="2">
         <f t="shared" si="1"/>
@@ -4628,7 +4625,7 @@
     </row>
     <row r="97" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T97" s="2">
         <f t="shared" si="1"/>
@@ -4637,7 +4634,7 @@
     </row>
     <row r="98" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R98" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T98" s="2">
         <f t="shared" si="1"/>
@@ -4646,7 +4643,7 @@
     </row>
     <row r="99" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R99" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T99" s="2">
         <f t="shared" si="1"/>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="100" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R100" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T100" s="2">
         <f t="shared" si="1"/>
@@ -4664,7 +4661,7 @@
     </row>
     <row r="101" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R101" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T101" s="2">
         <f t="shared" si="1"/>
@@ -4673,7 +4670,7 @@
     </row>
     <row r="102" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R102" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T102" s="2">
         <f t="shared" si="1"/>
@@ -4682,7 +4679,7 @@
     </row>
     <row r="103" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R103" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T103" s="2">
         <f t="shared" si="1"/>
@@ -4691,7 +4688,7 @@
     </row>
     <row r="104" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R104" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T104" s="2">
         <f t="shared" si="1"/>
@@ -4700,7 +4697,7 @@
     </row>
     <row r="105" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R105" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T105" s="2">
         <f t="shared" si="1"/>
@@ -4709,7 +4706,7 @@
     </row>
     <row r="106" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R106" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T106" s="2">
         <f t="shared" si="1"/>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="107" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R107" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T107" s="2">
         <f t="shared" si="1"/>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="108" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R108" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T108" s="2">
         <f t="shared" si="1"/>
@@ -4736,7 +4733,7 @@
     </row>
     <row r="109" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R109" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T109" s="2">
         <f t="shared" si="1"/>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="110" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R110" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T110" s="2">
         <f t="shared" si="1"/>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="111" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R111" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T111" s="2">
         <f t="shared" si="1"/>
@@ -4763,7 +4760,7 @@
     </row>
     <row r="112" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R112" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T112" s="2">
         <f t="shared" si="1"/>
@@ -4772,7 +4769,7 @@
     </row>
     <row r="113" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R113" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T113" s="2">
         <f t="shared" si="1"/>
@@ -4781,7 +4778,7 @@
     </row>
     <row r="114" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R114" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T114" s="2">
         <f t="shared" si="1"/>
@@ -4790,7 +4787,7 @@
     </row>
     <row r="115" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R115" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T115" s="2">
         <f t="shared" si="1"/>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="116" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R116" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T116" s="2">
         <f t="shared" si="1"/>
@@ -4808,7 +4805,7 @@
     </row>
     <row r="117" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R117" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T117" s="2">
         <f t="shared" si="1"/>
@@ -4817,7 +4814,7 @@
     </row>
     <row r="118" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R118" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T118" s="2">
         <f t="shared" si="1"/>
@@ -4826,7 +4823,7 @@
     </row>
     <row r="119" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R119" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T119" s="2">
         <f t="shared" si="1"/>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="120" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R120" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T120" s="2">
         <f t="shared" si="1"/>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="121" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R121" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T121" s="2">
         <f t="shared" si="1"/>
@@ -4853,7 +4850,7 @@
     </row>
     <row r="122" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R122" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T122" s="2">
         <f t="shared" si="1"/>
@@ -4862,7 +4859,7 @@
     </row>
     <row r="123" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R123" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T123" s="2">
         <f t="shared" si="1"/>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="124" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R124" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T124" s="2">
         <f t="shared" si="1"/>
@@ -4880,7 +4877,7 @@
     </row>
     <row r="125" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R125" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T125" s="2">
         <f t="shared" si="1"/>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="126" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R126" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T126" s="2">
         <f t="shared" si="1"/>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="127" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R127" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T127" s="2">
         <f t="shared" si="1"/>
@@ -4907,7 +4904,7 @@
     </row>
     <row r="128" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R128" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T128" s="2">
         <f t="shared" si="1"/>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="129" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R129" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T129" s="2">
         <f t="shared" si="1"/>
@@ -4925,7 +4922,7 @@
     </row>
     <row r="130" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R130" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T130" s="2">
         <f t="shared" si="1"/>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="131" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R131" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T131" s="2">
         <f t="shared" si="1"/>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="132" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R132" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T132" s="2">
         <f t="shared" ref="T132:T189" si="2">HEX2DEC(S132)</f>
@@ -4952,7 +4949,7 @@
     </row>
     <row r="133" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R133" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T133" s="2">
         <f t="shared" si="2"/>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="134" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R134" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T134" s="2">
         <f t="shared" si="2"/>
@@ -4970,7 +4967,7 @@
     </row>
     <row r="135" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R135" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T135" s="2">
         <f t="shared" si="2"/>
@@ -4979,7 +4976,7 @@
     </row>
     <row r="136" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R136" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T136" s="2">
         <f t="shared" si="2"/>
@@ -4988,7 +4985,7 @@
     </row>
     <row r="137" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R137" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T137" s="2">
         <f t="shared" si="2"/>
@@ -4997,7 +4994,7 @@
     </row>
     <row r="138" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T138" s="2">
         <f t="shared" si="2"/>
@@ -5006,7 +5003,7 @@
     </row>
     <row r="139" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R139" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T139" s="2">
         <f t="shared" si="2"/>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="140" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R140" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T140" s="2">
         <f t="shared" si="2"/>
@@ -5024,7 +5021,7 @@
     </row>
     <row r="141" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R141" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T141" s="2">
         <f t="shared" si="2"/>
@@ -5033,7 +5030,7 @@
     </row>
     <row r="142" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R142" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T142" s="2">
         <f t="shared" si="2"/>
@@ -5042,7 +5039,7 @@
     </row>
     <row r="143" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R143" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T143" s="2">
         <f t="shared" si="2"/>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="144" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R144" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T144" s="2">
         <f t="shared" si="2"/>
@@ -5060,7 +5057,7 @@
     </row>
     <row r="145" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R145" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T145" s="2">
         <f t="shared" si="2"/>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="146" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R146" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T146" s="2">
         <f t="shared" si="2"/>
@@ -5078,7 +5075,7 @@
     </row>
     <row r="147" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R147" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T147" s="2">
         <f t="shared" si="2"/>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="148" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R148" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T148" s="2">
         <f t="shared" si="2"/>
@@ -5096,7 +5093,7 @@
     </row>
     <row r="149" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R149" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T149" s="2">
         <f t="shared" si="2"/>
@@ -5105,7 +5102,7 @@
     </row>
     <row r="150" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R150" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T150" s="2">
         <f t="shared" si="2"/>
@@ -5114,7 +5111,7 @@
     </row>
     <row r="151" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R151" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T151" s="2">
         <f t="shared" si="2"/>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="152" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R152" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T152" s="2">
         <f t="shared" si="2"/>
@@ -5132,7 +5129,7 @@
     </row>
     <row r="153" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R153" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T153" s="2">
         <f t="shared" si="2"/>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="154" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R154" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T154" s="2">
         <f t="shared" si="2"/>
@@ -5150,7 +5147,7 @@
     </row>
     <row r="155" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R155" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T155" s="2">
         <f t="shared" si="2"/>
@@ -5159,7 +5156,7 @@
     </row>
     <row r="156" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R156" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T156" s="2">
         <f t="shared" si="2"/>
@@ -5168,7 +5165,7 @@
     </row>
     <row r="157" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R157" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T157" s="2">
         <f t="shared" si="2"/>
@@ -5177,7 +5174,7 @@
     </row>
     <row r="158" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R158" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T158" s="2">
         <f t="shared" si="2"/>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="159" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R159" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T159" s="2">
         <f t="shared" si="2"/>
@@ -5195,7 +5192,7 @@
     </row>
     <row r="160" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R160" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T160" s="2">
         <f t="shared" si="2"/>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="161" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R161" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T161" s="2">
         <f t="shared" si="2"/>
@@ -5213,7 +5210,7 @@
     </row>
     <row r="162" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R162" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T162" s="2">
         <f t="shared" si="2"/>
@@ -5222,7 +5219,7 @@
     </row>
     <row r="163" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R163" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T163" s="2">
         <f t="shared" si="2"/>
@@ -5231,7 +5228,7 @@
     </row>
     <row r="164" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R164" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T164" s="2">
         <f t="shared" si="2"/>
@@ -5240,7 +5237,7 @@
     </row>
     <row r="165" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R165" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T165" s="2">
         <f t="shared" si="2"/>
@@ -5249,7 +5246,7 @@
     </row>
     <row r="166" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R166" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T166" s="2">
         <f t="shared" si="2"/>
@@ -5258,7 +5255,7 @@
     </row>
     <row r="167" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R167" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T167" s="2">
         <f t="shared" si="2"/>
@@ -5267,7 +5264,7 @@
     </row>
     <row r="168" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R168" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T168" s="2">
         <f t="shared" si="2"/>
@@ -5276,7 +5273,7 @@
     </row>
     <row r="169" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R169" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T169" s="2">
         <f t="shared" si="2"/>
@@ -5285,7 +5282,7 @@
     </row>
     <row r="170" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R170" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T170" s="2">
         <f t="shared" si="2"/>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="171" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R171" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T171" s="2">
         <f t="shared" si="2"/>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="172" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R172" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T172" s="2">
         <f t="shared" si="2"/>
@@ -5312,7 +5309,7 @@
     </row>
     <row r="173" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R173" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T173" s="2">
         <f t="shared" si="2"/>
@@ -5321,7 +5318,7 @@
     </row>
     <row r="174" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R174" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T174" s="2">
         <f t="shared" si="2"/>
@@ -5330,7 +5327,7 @@
     </row>
     <row r="175" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R175" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T175" s="2">
         <f t="shared" si="2"/>
@@ -5339,7 +5336,7 @@
     </row>
     <row r="176" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R176" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T176" s="2">
         <f t="shared" si="2"/>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="177" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R177" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T177" s="2">
         <f t="shared" si="2"/>
@@ -5357,7 +5354,7 @@
     </row>
     <row r="178" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R178" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T178" s="2">
         <f t="shared" si="2"/>
@@ -5366,7 +5363,7 @@
     </row>
     <row r="179" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R179" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T179" s="2">
         <f t="shared" si="2"/>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="180" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R180" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T180" s="2">
         <f t="shared" si="2"/>
@@ -5384,7 +5381,7 @@
     </row>
     <row r="181" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R181" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T181" s="2">
         <f t="shared" si="2"/>
@@ -5393,7 +5390,7 @@
     </row>
     <row r="182" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R182" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T182" s="2">
         <f t="shared" si="2"/>
@@ -5402,7 +5399,7 @@
     </row>
     <row r="183" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R183" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T183" s="2">
         <f t="shared" si="2"/>
@@ -5411,7 +5408,7 @@
     </row>
     <row r="184" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R184" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T184" s="2">
         <f t="shared" si="2"/>
@@ -5420,7 +5417,7 @@
     </row>
     <row r="185" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R185" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T185" s="2">
         <f t="shared" si="2"/>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="186" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R186" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T186" s="2">
         <f t="shared" si="2"/>
@@ -5438,7 +5435,7 @@
     </row>
     <row r="187" spans="18:20" x14ac:dyDescent="0.25">
       <c r="R187" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T187" s="2">
         <f t="shared" si="2"/>
@@ -5462,11 +5459,11 @@
         <v>74</v>
       </c>
       <c r="S189" s="10" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="T189" s="2">
         <f t="shared" si="2"/>
-        <v>52212</v>
+        <v>62667</v>
       </c>
     </row>
   </sheetData>
